--- a/biology/Médecine/Frauenstation/Frauenstation.xlsx
+++ b/biology/Médecine/Frauenstation/Frauenstation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frauenstation est un film allemand réalisé par Rolf Thiele et sorti en 1977.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le service de gynécologie d'un établissement hospitalier allemand, on suit durant quelques semaines les évènements qui ponctuent le séjour de quelques femmes ainsi que la vie quotidienne des principaux membres de l'encadrement médical.
 </t>
@@ -542,12 +556,14 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre : Frauenstation[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre : Frauenstation
 Titre original : Frauenstation
 Réalisation : Rolf Thiele
-Scénario : Werner P. Zibaso d'après le roman de Marie-Louise Fischer, Frauenstation (1964)[2]
+Scénario : Werner P. Zibaso d'après le roman de Marie-Louise Fischer, Frauenstation (1964)
 Dialogues : Werner P. Zibaso
 Musique : Bernd Kampka
 Photographie : Charly Steinberger
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Horst Buchholz : Docteur Rainer Schumann
 Stephen Boyd : Professeur Carl-Theodor Overhoff
